--- a/biology/Zoologie/Canard_spatule/Canard_spatule.xlsx
+++ b/biology/Zoologie/Canard_spatule/Canard_spatule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spatula platalea
 Le Canard spatule ou Souchet roux  (Spatula platalea,  anciennement Anas platalea) est une espèce de canards barboteurs sud-américains de la famille des Anatidae. Ce palmipède est également appelé « canard souchet d'Argentine », du fait de la ressemblance du bec de ce canard avec celui du Canard souchet (Anas clypeata).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bec est noir et large, en forme de spatule. Bien qu'il existe un dimorphisme durant la période nuptiale, comme pour tous les canards austraux, les plumages nuptiaux de cette espèce sont moins colorés que ceux des espèces boréales. Le plumage éclipse est brun-gris. C'est un petit canard, sa taille est en moyenne de 53 cm et pèse de 500 à 600 grammes
 mâle
@@ -547,7 +561,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit en filtrant la végétation aquatique, les micro-organismes.
 On l'observe communément en petits groupes, de canards spatule seulement ou associés à d'autres espèces de canards.
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard spatule nidifie dans le centre et le sud du Chili et en Argentine jusqu'au Détroit de Magellan, mais durant l'hiver austral les populations les plus au sud migrent vers le nord, jusqu'au Pérou et au Brésil.
 Il vit dans les lagunes, estuaires d'eau douce ou saumâtre depuis les côtes marines jusqu'à 3 500 mètres. Il préfère les eaux calmes et peu profondes, riches en végétation palustre.
@@ -614,10 +632,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Il ne faut pas confondre le nom de l'espèce avec celui du genre Platalea formé par les spatules.
-Histoire évolutive
-Ce canard partage certains traits communs avec la Sarcelle cannelle et le canard souchet.
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne faut pas confondre le nom de l'espèce avec celui du genre Platalea formé par les spatules.
 </t>
         </is>
       </c>
@@ -643,12 +664,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce canard partage certains traits communs avec la Sarcelle cannelle et le canard souchet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canard_spatule</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_spatule</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Le canard spatule et l'homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce canard a été importé en Europe la première fois en 1932. À la fin de la Seconde Guerre mondiale, il était toujours surtout présent dans les réserves de la Wildfowl Trust britanniques. Depuis les années 1960, cette espèce est plus présente dans les zoos, bien qu'elle ne soit probablement présenté que dans un seul zoo en France[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce canard a été importé en Europe la première fois en 1932. À la fin de la Seconde Guerre mondiale, il était toujours surtout présent dans les réserves de la Wildfowl Trust britanniques. Depuis les années 1960, cette espèce est plus présente dans les zoos, bien qu'elle ne soit probablement présenté que dans un seul zoo en France.
 Cette espèce s'hybride avec d'autres espèces comme le canard souchet, si elles sont maintenues ensemble dans un enclos.
 </t>
         </is>
